--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H2">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N2">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q2">
-        <v>8.821433744279778</v>
+        <v>10.25703747489066</v>
       </c>
       <c r="R2">
-        <v>79.39290369851801</v>
+        <v>92.31333727401598</v>
       </c>
       <c r="S2">
-        <v>0.01683518549946011</v>
+        <v>0.02923791231791004</v>
       </c>
       <c r="T2">
-        <v>0.01683518549946011</v>
+        <v>0.02923791231791004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H3">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q3">
-        <v>25.97916179949244</v>
+        <v>23.4703674987671</v>
       </c>
       <c r="R3">
-        <v>233.812456195432</v>
+        <v>211.2333074889039</v>
       </c>
       <c r="S3">
-        <v>0.04957969653159273</v>
+        <v>0.06690280197161831</v>
       </c>
       <c r="T3">
-        <v>0.04957969653159273</v>
+        <v>0.06690280197161833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H4">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N4">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q4">
-        <v>38.04620296711067</v>
+        <v>27.51961893203311</v>
       </c>
       <c r="R4">
-        <v>342.4158267039961</v>
+        <v>247.676570388298</v>
       </c>
       <c r="S4">
-        <v>0.07260893218370053</v>
+        <v>0.07844528279503608</v>
       </c>
       <c r="T4">
-        <v>0.07260893218370053</v>
+        <v>0.0784452827950361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H5">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N5">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q5">
-        <v>41.03719219845868</v>
+        <v>40.15671626196355</v>
       </c>
       <c r="R5">
-        <v>369.3347297861281</v>
+        <v>361.410446357672</v>
       </c>
       <c r="S5">
-        <v>0.0783170585491321</v>
+        <v>0.1144676084022007</v>
       </c>
       <c r="T5">
-        <v>0.0783170585491321</v>
+        <v>0.1144676084022008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H6">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N6">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q6">
-        <v>21.95045179951111</v>
+        <v>26.39829598290022</v>
       </c>
       <c r="R6">
-        <v>197.5540661956</v>
+        <v>237.584663846102</v>
       </c>
       <c r="S6">
-        <v>0.04189114134438227</v>
+        <v>0.07524892691283655</v>
       </c>
       <c r="T6">
-        <v>0.04189114134438227</v>
+        <v>0.07524892691283658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H7">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I7">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J7">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N7">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q7">
-        <v>47.628722895062</v>
+        <v>17.50265145091444</v>
       </c>
       <c r="R7">
-        <v>428.6585060555581</v>
+        <v>157.52386305823</v>
       </c>
       <c r="S7">
-        <v>0.09089660573154565</v>
+        <v>0.04989169530729751</v>
       </c>
       <c r="T7">
-        <v>0.09089660573154565</v>
+        <v>0.04989169530729753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J8">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N8">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O8">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P8">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q8">
-        <v>1.570965214811222</v>
+        <v>2.021876289477333</v>
       </c>
       <c r="R8">
-        <v>14.138686933301</v>
+        <v>18.196886605296</v>
       </c>
       <c r="S8">
-        <v>0.002998094365521465</v>
+        <v>0.005763403108754822</v>
       </c>
       <c r="T8">
-        <v>0.002998094365521465</v>
+        <v>0.005763403108754823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J9">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O9">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P9">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q9">
         <v>4.626499578191555</v>
@@ -1013,10 +1013,10 @@
         <v>41.638496203724</v>
       </c>
       <c r="S9">
-        <v>0.008829401304808861</v>
+        <v>0.0131879394354513</v>
       </c>
       <c r="T9">
-        <v>0.008829401304808859</v>
+        <v>0.01318793943545131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J10">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N10">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O10">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P10">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q10">
-        <v>6.775458859591335</v>
+        <v>5.424691598362556</v>
       </c>
       <c r="R10">
-        <v>60.97912973632201</v>
+        <v>48.82222438526301</v>
       </c>
       <c r="S10">
-        <v>0.01293056322268999</v>
+        <v>0.01546320345352139</v>
       </c>
       <c r="T10">
-        <v>0.01293056322268999</v>
+        <v>0.01546320345352139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J11">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N11">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O11">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P11">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q11">
-        <v>7.308109240077335</v>
+        <v>7.915727389325778</v>
       </c>
       <c r="R11">
-        <v>65.772983160696</v>
+        <v>71.241546503932</v>
       </c>
       <c r="S11">
-        <v>0.01394709502713217</v>
+        <v>0.02256395610410433</v>
       </c>
       <c r="T11">
-        <v>0.01394709502713216</v>
+        <v>0.02256395610410433</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J12">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N12">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O12">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P12">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q12">
-        <v>3.909046672688889</v>
+        <v>5.203655427904111</v>
       </c>
       <c r="R12">
-        <v>35.1814200542</v>
+        <v>46.832898851137</v>
       </c>
       <c r="S12">
-        <v>0.007460184791779304</v>
+        <v>0.01483313495793763</v>
       </c>
       <c r="T12">
-        <v>0.007460184791779303</v>
+        <v>0.01483313495793763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J13">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N13">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O13">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P13">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q13">
-        <v>8.481962123509</v>
+        <v>3.450138118167223</v>
       </c>
       <c r="R13">
-        <v>76.337659111581</v>
+        <v>31.051243063505</v>
       </c>
       <c r="S13">
-        <v>0.01618732395300975</v>
+        <v>0.009834695059913259</v>
       </c>
       <c r="T13">
-        <v>0.01618732395300975</v>
+        <v>0.009834695059913261</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H14">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N14">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O14">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P14">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q14">
-        <v>2.563237696701445</v>
+        <v>2.206293147258667</v>
       </c>
       <c r="R14">
-        <v>23.069139270313</v>
+        <v>19.856638325328</v>
       </c>
       <c r="S14">
-        <v>0.004891787815235795</v>
+        <v>0.006289087443140329</v>
       </c>
       <c r="T14">
-        <v>0.004891787815235794</v>
+        <v>0.00628908744314033</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H15">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O15">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P15">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q15">
-        <v>7.548746471779111</v>
+        <v>5.04848608605911</v>
       </c>
       <c r="R15">
-        <v>67.938718246012</v>
+        <v>45.43637477453199</v>
       </c>
       <c r="S15">
-        <v>0.01440633697704796</v>
+        <v>0.01439082131499753</v>
       </c>
       <c r="T15">
-        <v>0.01440633697704795</v>
+        <v>0.01439082131499754</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H16">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N16">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O16">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P16">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q16">
-        <v>11.05505799722067</v>
+        <v>5.919481801012111</v>
       </c>
       <c r="R16">
-        <v>99.49552197498602</v>
+        <v>53.275336209109</v>
       </c>
       <c r="S16">
-        <v>0.02109792551706062</v>
+        <v>0.01687361387624268</v>
       </c>
       <c r="T16">
-        <v>0.02109792551706061</v>
+        <v>0.01687361387624268</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H17">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I17">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J17">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N17">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O17">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P17">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q17">
-        <v>11.92414759993867</v>
+        <v>8.637726840919555</v>
       </c>
       <c r="R17">
-        <v>107.317328399448</v>
+        <v>77.739541568276</v>
       </c>
       <c r="S17">
-        <v>0.02275653171436921</v>
+        <v>0.02462203151924782</v>
       </c>
       <c r="T17">
-        <v>0.02275653171436921</v>
+        <v>0.02462203151924782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H18">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I18">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J18">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N18">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O18">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P18">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q18">
-        <v>6.378127087177778</v>
+        <v>5.678284755121221</v>
       </c>
       <c r="R18">
-        <v>57.4031437846</v>
+        <v>51.104562796091</v>
       </c>
       <c r="S18">
-        <v>0.01217227899278813</v>
+        <v>0.01618607635906383</v>
       </c>
       <c r="T18">
-        <v>0.01217227899278813</v>
+        <v>0.01618607635906383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H19">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I19">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J19">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N19">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O19">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P19">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q19">
-        <v>13.839443962217</v>
+        <v>3.764827812079445</v>
       </c>
       <c r="R19">
-        <v>124.554995659953</v>
+        <v>33.883450308715</v>
       </c>
       <c r="S19">
-        <v>0.02641176174614331</v>
+        <v>0.01073172499672292</v>
       </c>
       <c r="T19">
-        <v>0.02641176174614331</v>
+        <v>0.01073172499672292</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H20">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N20">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O20">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P20">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q20">
-        <v>6.520190346233001</v>
+        <v>4.209880339482667</v>
       </c>
       <c r="R20">
-        <v>58.681713116097</v>
+        <v>37.888923055344</v>
       </c>
       <c r="S20">
-        <v>0.01244339833553708</v>
+        <v>0.01200035707542344</v>
       </c>
       <c r="T20">
-        <v>0.01244339833553708</v>
+        <v>0.01200035707542344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H21">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O21">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P21">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q21">
-        <v>19.201989708092</v>
+        <v>9.63313616971511</v>
       </c>
       <c r="R21">
-        <v>172.817907372828</v>
+        <v>86.69822552743599</v>
       </c>
       <c r="S21">
-        <v>0.03664586370714117</v>
+        <v>0.02745946784011534</v>
       </c>
       <c r="T21">
-        <v>0.03664586370714116</v>
+        <v>0.02745946784011535</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H22">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I22">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J22">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N22">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O22">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P22">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q22">
-        <v>28.121107349226</v>
+        <v>11.29510377393411</v>
       </c>
       <c r="R22">
-        <v>253.089966143034</v>
+        <v>101.655933965407</v>
       </c>
       <c r="S22">
-        <v>0.05366747315666692</v>
+        <v>0.0321969432764991</v>
       </c>
       <c r="T22">
-        <v>0.05366747315666691</v>
+        <v>0.03219694327649911</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H23">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I23">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J23">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N23">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O23">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P23">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q23">
-        <v>30.331838583768</v>
+        <v>16.48185167532756</v>
       </c>
       <c r="R23">
-        <v>272.986547253912</v>
+        <v>148.336665077948</v>
       </c>
       <c r="S23">
-        <v>0.05788652320021556</v>
+        <v>0.04698188295594216</v>
       </c>
       <c r="T23">
-        <v>0.05788652320021555</v>
+        <v>0.04698188295594217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H24">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I24">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J24">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N24">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O24">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P24">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q24">
-        <v>16.2242474486</v>
+        <v>10.83486996379922</v>
       </c>
       <c r="R24">
-        <v>146.0182270374</v>
+        <v>97.51382967419299</v>
       </c>
       <c r="S24">
-        <v>0.0309630184054195</v>
+        <v>0.03088503661539908</v>
       </c>
       <c r="T24">
-        <v>0.03096301840541949</v>
+        <v>0.03088503661539909</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H25">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I25">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J25">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N25">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O25">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P25">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q25">
-        <v>35.20383967347301</v>
+        <v>7.183757338549445</v>
       </c>
       <c r="R25">
-        <v>316.834557061257</v>
+        <v>64.65381604694501</v>
       </c>
       <c r="S25">
-        <v>0.06718444964578248</v>
+        <v>0.02047745927533431</v>
       </c>
       <c r="T25">
-        <v>0.06718444964578246</v>
+        <v>0.02047745927533431</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H26">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N26">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O26">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P26">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q26">
-        <v>2.668651246118555</v>
+        <v>5.108412159072</v>
       </c>
       <c r="R26">
-        <v>24.017861215067</v>
+        <v>45.975709431648</v>
       </c>
       <c r="S26">
-        <v>0.005092963350872995</v>
+        <v>0.01456164191232856</v>
       </c>
       <c r="T26">
-        <v>0.005092963350872995</v>
+        <v>0.01456164191232857</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H27">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I27">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J27">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O27">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P27">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q27">
-        <v>7.859189845900888</v>
+        <v>11.689175456568</v>
       </c>
       <c r="R27">
-        <v>70.73270861310799</v>
+        <v>105.202579109112</v>
       </c>
       <c r="S27">
-        <v>0.01499879982854388</v>
+        <v>0.03332025332894128</v>
       </c>
       <c r="T27">
-        <v>0.01499879982854388</v>
+        <v>0.03332025332894128</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H28">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I28">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J28">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N28">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O28">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P28">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q28">
-        <v>11.50969897881934</v>
+        <v>13.705863540966</v>
       </c>
       <c r="R28">
-        <v>103.587290809374</v>
+        <v>123.352771868694</v>
       </c>
       <c r="S28">
-        <v>0.02196558098926017</v>
+        <v>0.03906886734429871</v>
       </c>
       <c r="T28">
-        <v>0.02196558098926017</v>
+        <v>0.03906886734429871</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H29">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I29">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J29">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N29">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O29">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P29">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q29">
-        <v>12.41453002678134</v>
+        <v>19.999640064024</v>
       </c>
       <c r="R29">
-        <v>111.730770241032</v>
+        <v>179.996760576216</v>
       </c>
       <c r="S29">
-        <v>0.02369239762470664</v>
+        <v>0.05700941660914889</v>
       </c>
       <c r="T29">
-        <v>0.02369239762470664</v>
+        <v>0.0570094166091489</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H30">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I30">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J30">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N30">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O30">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P30">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q30">
-        <v>6.640428556822222</v>
+        <v>13.147400163834</v>
       </c>
       <c r="R30">
-        <v>59.7638570114</v>
+        <v>118.326601474506</v>
       </c>
       <c r="S30">
-        <v>0.01267286586180006</v>
+        <v>0.03747695512858133</v>
       </c>
       <c r="T30">
-        <v>0.01267286586180006</v>
+        <v>0.03747695512858133</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H31">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I31">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J31">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N31">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O31">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P31">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q31">
-        <v>14.408593250203</v>
+        <v>8.717015776410001</v>
       </c>
       <c r="R31">
-        <v>129.677339251827</v>
+        <v>78.45314198769</v>
       </c>
       <c r="S31">
-        <v>0.02749794956071973</v>
+        <v>0.02484804638458541</v>
       </c>
       <c r="T31">
-        <v>0.02749794956071973</v>
+        <v>0.02484804638458541</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H32">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I32">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J32">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N32">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O32">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P32">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q32">
-        <v>3.050359432693556</v>
+        <v>0.9603354980853334</v>
       </c>
       <c r="R32">
-        <v>27.453234894242</v>
+        <v>8.643019482768</v>
       </c>
       <c r="S32">
-        <v>0.005821430889590231</v>
+        <v>0.002737457590218538</v>
       </c>
       <c r="T32">
-        <v>0.005821430889590231</v>
+        <v>0.002737457590218539</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H33">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I33">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J33">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O33">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P33">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q33">
-        <v>8.983322161200888</v>
+        <v>2.197459755543556</v>
       </c>
       <c r="R33">
-        <v>80.849899450808</v>
+        <v>19.777137799892</v>
       </c>
       <c r="S33">
-        <v>0.01714413998555463</v>
+        <v>0.006263907664566991</v>
       </c>
       <c r="T33">
-        <v>0.01714413998555463</v>
+        <v>0.006263907664566993</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H34">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I34">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J34">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N34">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O34">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P34">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q34">
-        <v>13.15597866096934</v>
+        <v>2.576578960436556</v>
       </c>
       <c r="R34">
-        <v>118.403807948724</v>
+        <v>23.18921064392901</v>
       </c>
       <c r="S34">
-        <v>0.02510740856926772</v>
+        <v>0.007344595348299518</v>
       </c>
       <c r="T34">
-        <v>0.02510740856926772</v>
+        <v>0.007344595348299519</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H35">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I35">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J35">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N35">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O35">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P35">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q35">
-        <v>14.19023142298134</v>
+        <v>3.759752287861778</v>
       </c>
       <c r="R35">
-        <v>127.712082806832</v>
+        <v>33.837770590756</v>
       </c>
       <c r="S35">
-        <v>0.02708121890515464</v>
+        <v>0.0107172571026154</v>
       </c>
       <c r="T35">
-        <v>0.02708121890515463</v>
+        <v>0.0107172571026154</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H36">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I36">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J36">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N36">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O36">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P36">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q36">
-        <v>7.590236421822222</v>
+        <v>2.471592873030111</v>
       </c>
       <c r="R36">
-        <v>68.31212779639999</v>
+        <v>22.244335857271</v>
       </c>
       <c r="S36">
-        <v>0.0144855180972136</v>
+        <v>0.007045330182728619</v>
       </c>
       <c r="T36">
-        <v>0.0144855180972136</v>
+        <v>0.007045330182728621</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H37">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I37">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J37">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N37">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O37">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P37">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q37">
-        <v>16.469513727778</v>
+        <v>1.638720492157222</v>
       </c>
       <c r="R37">
-        <v>148.225623550002</v>
+        <v>14.748484429415</v>
       </c>
       <c r="S37">
-        <v>0.03143109461915306</v>
+        <v>0.004671209028976076</v>
       </c>
       <c r="T37">
-        <v>0.03143109461915306</v>
+        <v>0.004671209028976078</v>
       </c>
     </row>
   </sheetData>
